--- a/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
+++ b/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B23" s="65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B94" s="65">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95">
